--- a/doc/KeplerX-pinout.xlsx
+++ b/doc/KeplerX-pinout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohnaka/work/X68000/X68k-KeplerX-RTL/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B678C5-AFF9-474C-BF11-870AB4100563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4644456-3104-6E4F-8EB8-3A2B77C58100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20120" yWindow="500" windowWidth="40040" windowHeight="32980" activeTab="1" xr2:uid="{0684F262-CA78-2C4E-8CA0-6BF7C1AAA7E6}"/>
+    <workbookView xWindow="18240" yWindow="860" windowWidth="40040" windowHeight="32980" activeTab="1" xr2:uid="{0684F262-CA78-2C4E-8CA0-6BF7C1AAA7E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="251">
   <si>
     <t>コントロール</t>
     <phoneticPr fontId="1"/>
@@ -910,6 +910,38 @@
   </si>
   <si>
     <t>RasPi GPIO19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MMC SCK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MMC MISO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MMC MOSI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MMC CS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JoyA1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JoyA2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JoyA8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JoyA3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1562,7 +1594,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B8" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2265,11 +2297,17 @@
       <c r="G26" t="s">
         <v>228</v>
       </c>
+      <c r="H26" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="J26" t="s">
         <v>128</v>
       </c>
       <c r="K26" t="s">
         <v>127</v>
+      </c>
+      <c r="L26" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2289,11 +2327,17 @@
       <c r="G27" t="s">
         <v>227</v>
       </c>
+      <c r="H27" s="9" t="s">
+        <v>245</v>
+      </c>
       <c r="J27" t="s">
         <v>130</v>
       </c>
       <c r="K27" t="s">
         <v>129</v>
+      </c>
+      <c r="L27" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="21" thickBot="1">
@@ -2313,11 +2357,17 @@
       <c r="G28" s="6" t="s">
         <v>228</v>
       </c>
+      <c r="H28" s="9" t="s">
+        <v>244</v>
+      </c>
       <c r="J28" t="s">
         <v>132</v>
       </c>
       <c r="K28" t="s">
         <v>131</v>
+      </c>
+      <c r="L28" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2337,11 +2387,17 @@
       <c r="G29" s="6" t="s">
         <v>227</v>
       </c>
+      <c r="H29" s="9" t="s">
+        <v>246</v>
+      </c>
       <c r="J29" t="s">
         <v>134</v>
       </c>
       <c r="K29" t="s">
         <v>133</v>
+      </c>
+      <c r="L29" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="21" thickBot="1">
@@ -2583,8 +2639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED341C1-888F-504D-8B05-A1D29232117D}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView topLeftCell="H14" zoomScale="234" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/doc/KeplerX-pinout.xlsx
+++ b/doc/KeplerX-pinout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohnaka/work/X68000/X68k-KeplerX-RTL/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4644456-3104-6E4F-8EB8-3A2B77C58100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CA8023-9216-194F-8D70-10C8FB0C874C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18240" yWindow="860" windowWidth="40040" windowHeight="32980" activeTab="1" xr2:uid="{0684F262-CA78-2C4E-8CA0-6BF7C1AAA7E6}"/>
+    <workbookView xWindow="900" yWindow="860" windowWidth="40040" windowHeight="32980" activeTab="1" xr2:uid="{0684F262-CA78-2C4E-8CA0-6BF7C1AAA7E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="280">
   <si>
     <t>コントロール</t>
     <phoneticPr fontId="1"/>
@@ -944,12 +944,128 @@
     <t>JoyA3</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>WM8804 INT_N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIDI In Ext</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pGPIO2[12]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pGPIO2[11]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pGPIO2[10]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pGPIO2_IN[2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pGPIO2_IN[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pGPIO2_IN[0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pGPIO2[9]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pGPIO2[8]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pGPIO2[7]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pGPIO2[6]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pGPIO2[5]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pGPIO2[4]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pGPIO2[3]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pGPIO2[2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pGPIO2[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pGPIO2[0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.3V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Analog_In[5]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Analog_In[6]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Analog_In[7]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Analog_In[3]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Analog_In[2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Analog_In[4]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Analog_In[0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Analog_In[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MMC Access LED</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -969,6 +1085,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1067,7 +1191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1110,6 +1234,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1128,7 +1255,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1416,7 +1543,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1591,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889E3EA4-6D2F-3747-B009-BC2360DB4E3F}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2417,6 +2544,9 @@
       <c r="G30" t="s">
         <v>228</v>
       </c>
+      <c r="H30" s="9" t="s">
+        <v>251</v>
+      </c>
       <c r="J30" t="s">
         <v>136</v>
       </c>
@@ -2592,7 +2722,7 @@
         <v>228</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>193</v>
+        <v>252</v>
       </c>
       <c r="K36" t="s">
         <v>147</v>
@@ -2623,6 +2753,217 @@
       </c>
       <c r="K37" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>278</v>
+      </c>
+      <c r="E40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="E41" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E44" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>273</v>
+      </c>
+      <c r="E45" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>272</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>271</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>270</v>
+      </c>
+      <c r="E48" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>253</v>
+      </c>
+      <c r="D49" t="s">
+        <v>279</v>
+      </c>
+      <c r="E49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>254</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>255</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>259</v>
+      </c>
+      <c r="E52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>260</v>
+      </c>
+      <c r="E53" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>262</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>263</v>
+      </c>
+      <c r="E56" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>264</v>
+      </c>
+      <c r="E57" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>265</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>266</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>267</v>
+      </c>
+      <c r="E60" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>268</v>
+      </c>
+      <c r="E61" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>256</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>257</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>258</v>
+      </c>
+      <c r="E64" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>269</v>
+      </c>
+      <c r="E65" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
